--- a/R/Reports/duplicate_data.xlsx
+++ b/R/Reports/duplicate_data.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
+    <t xml:space="preserve">Not a Store and Forward Trip</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
